--- a/groceryApplication/src/test/resources/Testdata.xlsx
+++ b/groceryApplication/src/test/resources/Testdata.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\groceryApplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\GroceryProject\groceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7740E4C-5CC0-4029-AD7F-7C4FEB0B6EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D2DDBD-200C-4318-9088-CE728AEA0ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="1212" windowWidth="11220" windowHeight="11544" firstSheet="2" activeTab="2" xr2:uid="{AD1FE979-0628-4844-809F-B150ABAC0EC0}"/>
+    <workbookView xWindow="11352" yWindow="4956" windowWidth="11220" windowHeight="11544" firstSheet="3" activeTab="4" xr2:uid="{AD1FE979-0628-4844-809F-B150ABAC0EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="managenews" sheetId="2" r:id="rId2"/>
     <sheet name="adminuser" sheetId="3" r:id="rId3"/>
+    <sheet name="managecontact" sheetId="4" r:id="rId4"/>
+    <sheet name="managefootertext" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>UsernamePassword</t>
   </si>
@@ -53,20 +56,52 @@
     <t>Username</t>
   </si>
   <si>
-    <t>obsadmin</t>
-  </si>
-  <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>obsadmin12</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DeliveryTime</t>
+  </si>
+  <si>
+    <t>DeliveryChargeLimit</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>Kerala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,13 +124,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A0821-BEE7-44AB-B18A-8BD7FC429A44}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -493,18 +531,128 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B941BCFB-1480-4631-A224-18BF7124B056}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9876543210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D381D11E-763A-4D14-A12E-5D042831111E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B65C5-3282-469A-8155-F51F521E91D6}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>123456780</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E7EB77A0-8576-484A-BAA0-BC0429189443}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67653EBE-777E-4D6F-B9E7-BCE14622E931}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>